--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/111.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/111.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1008833492444121</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.707499005467981</v>
+        <v>-1.655605976220904</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1373213990302507</v>
+        <v>-0.1241556934744063</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08222603239969033</v>
+        <v>-0.1114824760453188</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.08839255411319298</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.769234218895874</v>
+        <v>-1.791673698005049</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03417484159991478</v>
+        <v>-0.1170876006663173</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003929945396741087</v>
+        <v>-0.05323093736233447</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.09003425403139775</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.02681371302185</v>
+        <v>-1.96406960636314</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05201370917463727</v>
+        <v>-0.06260298605787741</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1403753677163111</v>
+        <v>-0.154897006028489</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1106975577150053</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.155013965668134</v>
+        <v>-2.124886603336278</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.07656396590314639</v>
+        <v>-0.04035185315242884</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08119377839941787</v>
+        <v>-0.1549320471826708</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1495521541823067</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.260772549133105</v>
+        <v>-2.187895708723488</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1477442304311273</v>
+        <v>0.0220768831186453</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01710204735279872</v>
+        <v>-0.1666693737854858</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.201873725954061</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.056118338254478</v>
+        <v>-1.973377412942682</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02242830278843365</v>
+        <v>0.1880215689870553</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.02140480907670666</v>
+        <v>-0.1944876700615693</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2600791052905113</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.747781732296152</v>
+        <v>-1.636666232385636</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1568067489313976</v>
+        <v>0.1952079256905079</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02935331088361361</v>
+        <v>-0.1809530242588456</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.313551034444876</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.386761481049522</v>
+        <v>-1.28101895811355</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06849765212099648</v>
+        <v>0.2930501284065725</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01713024018664663</v>
+        <v>-0.1674461193698493</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3492454894928856</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.005153091672988</v>
+        <v>-0.8951180273497448</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06833850687908742</v>
+        <v>0.3031215401376607</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04816794250318375</v>
+        <v>-0.1214049628711344</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.351720248730069</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5086038763877576</v>
+        <v>-0.3492761284673459</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06745472586396702</v>
+        <v>0.1731334586040593</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08508233838562838</v>
+        <v>-0.06728536028542161</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.3080300172438331</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3059846944439327</v>
+        <v>0.3310770809342896</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3662506475722504</v>
+        <v>-0.08032942992959992</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2465665773363123</v>
+        <v>0.001999761820559786</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2138568262893087</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7545844703756305</v>
+        <v>0.7975405452582552</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5706865812612865</v>
+        <v>-0.4254614378509618</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4517777965616208</v>
+        <v>0.1195321730906191</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.06984936531786547</v>
       </c>
       <c r="E14" t="n">
-        <v>1.518304965720062</v>
+        <v>1.471254915990529</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.090976178504692</v>
+        <v>-0.9186788233927384</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4512331986237119</v>
+        <v>0.2078300414364136</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1177167978176811</v>
       </c>
       <c r="E15" t="n">
-        <v>2.343089052370567</v>
+        <v>2.113420567574448</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.459936171269684</v>
+        <v>-1.34564214666526</v>
       </c>
       <c r="G15" t="n">
-        <v>0.707384035692734</v>
+        <v>0.3458571477585584</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3382939529493362</v>
       </c>
       <c r="E16" t="n">
-        <v>3.069143227065736</v>
+        <v>2.662442451198845</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.848076815804943</v>
+        <v>-1.774992648566418</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9127690006408606</v>
+        <v>0.4684603060483436</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5808824535904368</v>
       </c>
       <c r="E17" t="n">
-        <v>3.845812888928437</v>
+        <v>3.225847268566785</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.989837995119587</v>
+        <v>-2.03160121071194</v>
       </c>
       <c r="G17" t="n">
-        <v>1.034348665218919</v>
+        <v>0.6013524232347625</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8386861042469042</v>
       </c>
       <c r="E18" t="n">
-        <v>4.400142047363288</v>
+        <v>3.577543652704872</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.451039446123918</v>
+        <v>-2.43037976563756</v>
       </c>
       <c r="G18" t="n">
-        <v>1.254049401698405</v>
+        <v>0.7931078392542564</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.104634102334471</v>
       </c>
       <c r="E19" t="n">
-        <v>4.864367257963891</v>
+        <v>3.86074480075416</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.642223983339866</v>
+        <v>-2.705936831906895</v>
       </c>
       <c r="G19" t="n">
-        <v>1.387966472644642</v>
+        <v>0.9539759379105769</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.36760692422458</v>
       </c>
       <c r="E20" t="n">
-        <v>5.076865577210924</v>
+        <v>3.982337605765037</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.873331345529577</v>
+        <v>-2.909991693044204</v>
       </c>
       <c r="G20" t="n">
-        <v>1.601866438058948</v>
+        <v>1.084822527721633</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.619505901368803</v>
       </c>
       <c r="E21" t="n">
-        <v>5.529455664575075</v>
+        <v>4.234677717316787</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.203373756431398</v>
+        <v>-3.11211491055724</v>
       </c>
       <c r="G21" t="n">
-        <v>1.797469080797987</v>
+        <v>1.162902979527248</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.851964008157603</v>
       </c>
       <c r="E22" t="n">
-        <v>5.917407962906608</v>
+        <v>4.411321635595375</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.379248959390123</v>
+        <v>-3.335470877432317</v>
       </c>
       <c r="G22" t="n">
-        <v>1.865929275732605</v>
+        <v>1.206996431872691</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.057033523534305</v>
       </c>
       <c r="E23" t="n">
-        <v>5.930640378754513</v>
+        <v>4.345269059962666</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.557609894223621</v>
+        <v>-3.510405079396452</v>
       </c>
       <c r="G23" t="n">
-        <v>1.989006949651935</v>
+        <v>1.287496183364942</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.230293771899754</v>
       </c>
       <c r="E24" t="n">
-        <v>6.126681035920824</v>
+        <v>4.376998825074294</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.71149385283708</v>
+        <v>-3.685199116743859</v>
       </c>
       <c r="G24" t="n">
-        <v>2.115733283750447</v>
+        <v>1.319249309246024</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.369348195427301</v>
       </c>
       <c r="E25" t="n">
-        <v>6.012095001698219</v>
+        <v>4.236251649158786</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.972237271176055</v>
+        <v>-3.77810197676838</v>
       </c>
       <c r="G25" t="n">
-        <v>1.98133439693421</v>
+        <v>1.245275972720135</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.469988771821186</v>
       </c>
       <c r="E26" t="n">
-        <v>5.960293955480869</v>
+        <v>4.13586750271645</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.923754184245295</v>
+        <v>-3.83110902270882</v>
       </c>
       <c r="G26" t="n">
-        <v>1.884365302976509</v>
+        <v>1.218342465587142</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.527535139260278</v>
       </c>
       <c r="E27" t="n">
-        <v>5.76462561057774</v>
+        <v>3.913470057413055</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.875842706142126</v>
+        <v>-3.786756411827241</v>
       </c>
       <c r="G27" t="n">
-        <v>1.962105563576943</v>
+        <v>1.174682647524699</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.541183376863172</v>
       </c>
       <c r="E28" t="n">
-        <v>5.878813051671528</v>
+        <v>3.801918003123358</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.854410660215677</v>
+        <v>-3.688017009559313</v>
       </c>
       <c r="G28" t="n">
-        <v>1.875854682654602</v>
+        <v>1.076339648313453</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.51154545732419</v>
       </c>
       <c r="E29" t="n">
-        <v>5.654667928803315</v>
+        <v>3.496381039379349</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.822172798368413</v>
+        <v>-3.611515599764015</v>
       </c>
       <c r="G29" t="n">
-        <v>1.786829710359535</v>
+        <v>1.025557715663558</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.440676001977904</v>
       </c>
       <c r="E30" t="n">
-        <v>5.618336092109143</v>
+        <v>3.321407416116759</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.930184236037657</v>
+        <v>-3.59157499296243</v>
       </c>
       <c r="G30" t="n">
-        <v>1.820390375777162</v>
+        <v>0.9983599398261104</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.334961774336643</v>
       </c>
       <c r="E31" t="n">
-        <v>5.344632556891217</v>
+        <v>3.041884129208471</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.962110377617512</v>
+        <v>-3.480168943481823</v>
       </c>
       <c r="G31" t="n">
-        <v>1.596562083344677</v>
+        <v>0.8843856657535956</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.201944985587545</v>
       </c>
       <c r="E32" t="n">
-        <v>4.988443604777403</v>
+        <v>2.708229559329742</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.75063482205816</v>
+        <v>-3.277120785503196</v>
       </c>
       <c r="G32" t="n">
-        <v>1.56247142047005</v>
+        <v>0.78315177132235</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.048587120934957</v>
       </c>
       <c r="E33" t="n">
-        <v>4.726932931166655</v>
+        <v>2.461999749038445</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.801778846634601</v>
+        <v>-3.114397695747376</v>
       </c>
       <c r="G33" t="n">
-        <v>1.626008333242124</v>
+        <v>0.7492319340743592</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.88604463567473</v>
       </c>
       <c r="E34" t="n">
-        <v>4.489435668507082</v>
+        <v>2.160315852206344</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.777695353375062</v>
+        <v>-2.93615210471306</v>
       </c>
       <c r="G34" t="n">
-        <v>1.477616345522618</v>
+        <v>0.6691234754704716</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.722490483123138</v>
       </c>
       <c r="E35" t="n">
-        <v>4.050736478679836</v>
+        <v>1.816849759156709</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.766602638004383</v>
+        <v>-2.874025598396804</v>
       </c>
       <c r="G35" t="n">
-        <v>1.473974985583892</v>
+        <v>0.5998383533644902</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.562380396465773</v>
       </c>
       <c r="E36" t="n">
-        <v>3.844906199063983</v>
+        <v>1.586287724928953</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.631460586709874</v>
+        <v>-2.713524701835347</v>
       </c>
       <c r="G36" t="n">
-        <v>1.330904873155748</v>
+        <v>0.5059119996282426</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.408626762130017</v>
       </c>
       <c r="E37" t="n">
-        <v>3.51052306518789</v>
+        <v>1.296530960951485</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.564682367175982</v>
+        <v>-2.622735261422417</v>
       </c>
       <c r="G37" t="n">
-        <v>1.270929017677401</v>
+        <v>0.4167556230049939</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.26362842575685</v>
       </c>
       <c r="E38" t="n">
-        <v>3.327633061176394</v>
+        <v>1.072121569378818</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.412329268985842</v>
+        <v>-2.470688043307322</v>
       </c>
       <c r="G38" t="n">
-        <v>1.131327979513256</v>
+        <v>0.3020892861373883</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.126910733324273</v>
       </c>
       <c r="E39" t="n">
-        <v>2.901558907191236</v>
+        <v>0.7036682133013714</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.271148458787334</v>
+        <v>-2.337728033884676</v>
       </c>
       <c r="G39" t="n">
-        <v>1.05655599668164</v>
+        <v>0.2579987538881274</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9979726080473602</v>
       </c>
       <c r="E40" t="n">
-        <v>2.516639128744521</v>
+        <v>0.4121185102682678</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.110650482322059</v>
+        <v>-2.255080551650698</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9558856808134855</v>
+        <v>0.2096989029927767</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8798578245578916</v>
       </c>
       <c r="E41" t="n">
-        <v>2.235845599997142</v>
+        <v>0.2247140375596818</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.054021057068074</v>
+        <v>-2.192695616822351</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8239396747899754</v>
+        <v>0.1499011733815201</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7730711282407661</v>
       </c>
       <c r="E42" t="n">
-        <v>1.835141241639613</v>
+        <v>-0.04221049437215561</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.817648031438501</v>
+        <v>-2.126777365614005</v>
       </c>
       <c r="G42" t="n">
-        <v>0.744021022437906</v>
+        <v>0.1314301049834341</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6768645193005354</v>
       </c>
       <c r="E43" t="n">
-        <v>1.731847219352095</v>
+        <v>-0.1369515549431302</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.763908041356425</v>
+        <v>-2.035277611804848</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6106908908242146</v>
+        <v>0.02902817207946162</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5923843338801763</v>
       </c>
       <c r="E44" t="n">
-        <v>1.461363090174622</v>
+        <v>-0.2951360852083604</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.698459925633351</v>
+        <v>-2.052128026822025</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4966056530967906</v>
+        <v>-0.03236977023943098</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5188153466579986</v>
       </c>
       <c r="E45" t="n">
-        <v>1.291631039558395</v>
+        <v>-0.427344899888234</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.540344017628394</v>
+        <v>-1.927355967093195</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4352690327977162</v>
+        <v>-0.07130487267969325</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4540766497325371</v>
       </c>
       <c r="E46" t="n">
-        <v>1.002069922025109</v>
+        <v>-0.5725744234428314</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.505517490515949</v>
+        <v>-1.968442450395411</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4826519734919762</v>
+        <v>-0.06605453974478558</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3969122618681723</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6291239979719369</v>
+        <v>-0.8375877524236693</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.459183594375006</v>
+        <v>-1.949959701612598</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3024265572463882</v>
+        <v>-0.152449965428126</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3465626174432873</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5370854864172343</v>
+        <v>-0.878658905220931</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.443342072588647</v>
+        <v>-1.840831327153809</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2627263896064898</v>
+        <v>-0.1567585673443976</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3004198280876059</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3133710777358398</v>
+        <v>-1.070878616533334</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.394938558278842</v>
+        <v>-1.798838153987139</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1632985746636983</v>
+        <v>-0.2224373706658345</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.256723724539023</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2264733955092268</v>
+        <v>-1.183497965977486</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.268888226446421</v>
+        <v>-1.745099623953153</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04815334202227466</v>
+        <v>-0.2918538970999977</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2151594168306533</v>
       </c>
       <c r="E51" t="n">
-        <v>0.07637023142717618</v>
+        <v>-1.279985244065187</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.241789733879156</v>
+        <v>-1.698636513556165</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04624943931172972</v>
+        <v>-0.2822686813831821</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1750286485138118</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.02888317539834101</v>
+        <v>-1.330878140369991</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.106134475680692</v>
+        <v>-1.606646183588463</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.005142793440165569</v>
+        <v>-0.3188764671665359</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1349421531684779</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.2956587824249057</v>
+        <v>-1.431437492583237</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.04639222789689</v>
+        <v>-1.604774401935918</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02488747569364455</v>
+        <v>-0.3474408480170736</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.0945060516359796</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1084689367856833</v>
+        <v>-1.395492568633156</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.081193204167744</v>
+        <v>-1.576532691713471</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.13759397610313</v>
+        <v>-0.4144599754859647</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.05407378057280558</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.413289016917056</v>
+        <v>-1.568521407838655</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.13307674310223</v>
+        <v>-1.620691846223004</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1733315732243022</v>
+        <v>-0.4408751655466849</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.01356155916703164</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5357257297244776</v>
+        <v>-1.700847026365801</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.958863804895005</v>
+        <v>-1.522452510426213</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1425727400931287</v>
+        <v>-0.4744927728398577</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.02623025522434616</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5704617338552865</v>
+        <v>-1.667173937245174</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.954417958458188</v>
+        <v>-1.539758460447753</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1835154086583904</v>
+        <v>-0.481701030264674</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.06481212900975233</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6226861940189997</v>
+        <v>-1.710886317038889</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.983702143017543</v>
+        <v>-1.581642860031651</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2513726037314631</v>
+        <v>-0.5263420006442074</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1019710271350533</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.838888655272669</v>
+        <v>-1.798848374323775</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.913493540494062</v>
+        <v>-1.602953721966555</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2653219031920048</v>
+        <v>-0.5525951253668367</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1377756489102538</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.7828125882451386</v>
+        <v>-1.742718285516881</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.912572980172744</v>
+        <v>-1.621694899261459</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2442139879417377</v>
+        <v>-0.5400912735162946</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1721057530417574</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9536382148814563</v>
+        <v>-1.847757065273034</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.990572399309314</v>
+        <v>-1.731724123392338</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3878578992696082</v>
+        <v>-0.6209326762618184</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2056738586128905</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.093160410448692</v>
+        <v>-1.997182767040903</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.861573500357304</v>
+        <v>-1.668322995092719</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4048017573646037</v>
+        <v>-0.6183761320546373</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2386802549973511</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.13517475431268</v>
+        <v>-2.062899531612704</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.020087271467033</v>
+        <v>-1.783666794274506</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5183015158075732</v>
+        <v>-0.6594604252847172</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2709074364287876</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.227370951061201</v>
+        <v>-2.182743199010672</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.009699029300218</v>
+        <v>-1.780038574768598</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5904497922198266</v>
+        <v>-0.7329650863734247</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3022808892221133</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.391294930371793</v>
+        <v>-2.284663316044644</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.93148571311833</v>
+        <v>-1.756921633345241</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.633220440994906</v>
+        <v>-0.7504637627429654</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.332586082623489</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.607168880805008</v>
+        <v>-2.422829856959471</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.114739999128508</v>
+        <v>-1.911236306145517</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6617366402584438</v>
+        <v>-0.7731616703642321</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3612978488714101</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.658175660860904</v>
+        <v>-2.519474090216945</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.063858783208431</v>
+        <v>-1.90399446761461</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6844798093705287</v>
+        <v>-0.7787142332539578</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.388548985380659</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.628370239133093</v>
+        <v>-2.596241228764788</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.171626392846493</v>
+        <v>-1.971744349153001</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6892673070606182</v>
+        <v>-0.8169309920334931</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4133873116144609</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.589719846070558</v>
+        <v>-2.538332071359122</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.238335990120111</v>
+        <v>-2.02915051999135</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6814648100628021</v>
+        <v>-0.812006249822858</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.434841263773632</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.728478436486248</v>
+        <v>-2.614687476345328</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.346792742457082</v>
+        <v>-2.12864914726655</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7102335976460672</v>
+        <v>-0.8592358854675726</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4517374463339692</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.768619538649601</v>
+        <v>-2.634455797472187</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.524049150909808</v>
+        <v>-2.202296163044121</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8811044857732031</v>
+        <v>-0.9170756905889207</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4635791749294485</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.803585500354728</v>
+        <v>-2.641921023361003</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.713816711453529</v>
+        <v>-2.326903237338679</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7578997876699635</v>
+        <v>-0.9090775471469228</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.469553912442871</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.691848749981531</v>
+        <v>-2.528515438019897</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.752905118943337</v>
+        <v>-2.393015674943115</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.8640569642637531</v>
+        <v>-0.9568517807295464</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4692382532696432</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.772617150322509</v>
+        <v>-2.541267498045894</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.852961484589264</v>
+        <v>-2.431643437260241</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.9000938712435617</v>
+        <v>-0.9633095734356355</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4631417427666956</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.516866366430396</v>
+        <v>-2.29141238834487</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.823053859495091</v>
+        <v>-2.467650413254186</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.9654091225903623</v>
+        <v>-0.9539711058461835</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.451473376661683</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.533427691925573</v>
+        <v>-2.118417130245462</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.68356305496181</v>
+        <v>-2.416976524163018</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.9236210861804643</v>
+        <v>-0.9203184573988289</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.434452225008347</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.336562107587899</v>
+        <v>-1.931974099204739</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.698825667680124</v>
+        <v>-2.510913828259947</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.8047541909553145</v>
+        <v>-0.8248838739846728</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4129860361912426</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.071196907017152</v>
+        <v>-1.679944977896352</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.667574798342314</v>
+        <v>-2.445529224628828</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.8693846797474789</v>
+        <v>-0.8551419106206646</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3877954152582662</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8692751761406609</v>
+        <v>-1.454442010303595</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.588867985905699</v>
+        <v>-2.415701172155609</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.7992074682579523</v>
+        <v>-0.7960669048144078</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3594647775385789</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6240206779740903</v>
+        <v>-1.22322441448302</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.579669682932974</v>
+        <v>-2.325032915734225</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.7410975542397862</v>
+        <v>-0.6936445312371625</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3284586572183715</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.5242774926436625</v>
+        <v>-0.9556501611507285</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.482941496910273</v>
+        <v>-2.23334481572134</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.7094145106670674</v>
+        <v>-0.5790205357641933</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2961147376619455</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.2374393647999214</v>
+        <v>-0.6482122147923566</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.429992122869423</v>
+        <v>-2.192326224655351</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.6574397187268995</v>
+        <v>-0.5553692167395633</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2628965310759945</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.003386355586802403</v>
+        <v>-0.364754098279069</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.348841189928627</v>
+        <v>-2.14187280282591</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.644478871823903</v>
+        <v>-0.4943275261548524</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2301308091158999</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3529778022979201</v>
+        <v>0.01638853575646501</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.32211865974477</v>
+        <v>-2.06654089155143</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5887999378770997</v>
+        <v>-0.4314140539175966</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1993472739040937</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4391381602386242</v>
+        <v>0.2374208360948602</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.076892632515973</v>
+        <v>-1.953692314557006</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.5652727229401969</v>
+        <v>-0.4191963714928726</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1719098734546576</v>
       </c>
       <c r="E86" t="n">
-        <v>0.7489705854660865</v>
+        <v>0.5322089257935992</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.161868161430905</v>
+        <v>-1.928193304673331</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.453362956868227</v>
+        <v>-0.2985730384143595</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1482820375269399</v>
       </c>
       <c r="E87" t="n">
-        <v>1.00012659801611</v>
+        <v>0.8558942873076032</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.046590794437254</v>
+        <v>-1.802314528491592</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.4208914873264176</v>
+        <v>-0.2517857973411903</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1291045582910634</v>
       </c>
       <c r="E88" t="n">
-        <v>1.119787759402714</v>
+        <v>1.082902564482088</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.816577738291679</v>
+        <v>-1.658968466974267</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.3629523989348877</v>
+        <v>-0.2521522694120084</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1148933585307368</v>
       </c>
       <c r="E89" t="n">
-        <v>1.399413249677366</v>
+        <v>1.32875422231784</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.731324070215429</v>
+        <v>-1.576109277767107</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.2380803259118303</v>
+        <v>-0.1408104620474019</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1057453315012064</v>
       </c>
       <c r="E90" t="n">
-        <v>1.619762247509216</v>
+        <v>1.625219907273033</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.515248633145669</v>
+        <v>-1.351207849987804</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1833825442821177</v>
+        <v>-0.1132257734658638</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1017607961488078</v>
       </c>
       <c r="E91" t="n">
-        <v>1.64252001710221</v>
+        <v>1.727507956425915</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.297282433798182</v>
+        <v>-1.172823554384852</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1025907831716849</v>
+        <v>-0.09492115055014146</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1030834042278235</v>
       </c>
       <c r="E92" t="n">
-        <v>1.615411304198308</v>
+        <v>1.807289364257439</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.10654175120187</v>
+        <v>-0.9555070764378195</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1220225632135887</v>
+        <v>-0.06780951755005783</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1091878485013034</v>
       </c>
       <c r="E93" t="n">
-        <v>1.726421680646279</v>
+        <v>1.910070909665047</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.837257781555124</v>
+        <v>-0.7525764523305103</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.113526543372591</v>
+        <v>-0.07127713176596599</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1193296936032656</v>
       </c>
       <c r="E94" t="n">
-        <v>1.689924858517834</v>
+        <v>1.946122417125765</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7667286984756884</v>
+        <v>-0.6074053306995493</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1249338991068607</v>
+        <v>-0.09299534711823289</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.133902974336241</v>
       </c>
       <c r="E95" t="n">
-        <v>1.689410921589834</v>
+        <v>1.941981720739948</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5077964697934851</v>
+        <v>-0.3950559363577881</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1078279756737744</v>
+        <v>-0.07385119655023803</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1535548317190638</v>
       </c>
       <c r="E96" t="n">
-        <v>1.568225469996321</v>
+        <v>1.858910824559607</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.2925722407607247</v>
+        <v>-0.2179696235076539</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06096189200369603</v>
+        <v>-0.0565072852783336</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1788758032056977</v>
       </c>
       <c r="E97" t="n">
-        <v>1.447759822111626</v>
+        <v>1.786153708093444</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.09263617528786934</v>
+        <v>-0.1190221643867714</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1888051628917526</v>
+        <v>-0.09965170636468565</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2085155720104088</v>
       </c>
       <c r="E98" t="n">
-        <v>1.388090576732369</v>
+        <v>1.693685942400015</v>
       </c>
       <c r="F98" t="n">
-        <v>0.06340208428372511</v>
+        <v>-0.04987720689751719</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1332474129364948</v>
+        <v>-0.09045194334386994</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2420187848729382</v>
       </c>
       <c r="E99" t="n">
-        <v>1.210696193735053</v>
+        <v>1.564674633039231</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09317976509780802</v>
+        <v>0.02444654117019012</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2186543860622901</v>
+        <v>-0.139528539823584</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2779515080077579</v>
       </c>
       <c r="E100" t="n">
-        <v>1.165374840945157</v>
+        <v>1.504508971309065</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2305878110294075</v>
+        <v>0.0790421194335391</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2575033456651887</v>
+        <v>-0.1555978291121252</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3118694796430865</v>
       </c>
       <c r="E101" t="n">
-        <v>1.030872290714465</v>
+        <v>1.324013446166659</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2077906201379591</v>
+        <v>0.10279126168026</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.07426731025614701</v>
+        <v>-0.06776863620351239</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3449361446474537</v>
       </c>
       <c r="E102" t="n">
-        <v>1.003286142084836</v>
+        <v>1.204956744689691</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1816323985412388</v>
+        <v>0.09908857972171553</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2115687726771101</v>
+        <v>-0.110312977524501</v>
       </c>
     </row>
   </sheetData>
